--- a/2023년 2학기 소리나래 활동 인원 명단.xlsx
+++ b/2023년 2학기 소리나래 활동 인원 명단.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dldns\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dldns\OneDrive\Desktop\coding\python\sorinarae\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8112" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11244" windowHeight="8088" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -22,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+  <x:si>
+    <x:t>박재욱</x:t>
+  </x:si>
   <x:si>
     <x:t>이동현</x:t>
   </x:si>
@@ -30,133 +33,130 @@
     <x:t>이준호</x:t>
   </x:si>
   <x:si>
+    <x:t>이신애</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윤혜령</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이성현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김지윤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정지원</x:t>
+  </x:si>
+  <x:si>
     <x:t>정상운</x:t>
   </x:si>
   <x:si>
+    <x:t>권민식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이운희</x:t>
+  </x:si>
+  <x:si>
     <x:t>이예진</x:t>
   </x:si>
   <x:si>
+    <x:t>정여원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박노엘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신승리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정명준</x:t>
+  </x:si>
+  <x:si>
     <x:t>최혜연</x:t>
   </x:si>
   <x:si>
-    <x:t>신승리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권민식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정여원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박노엘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정명준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박재욱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이운희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이성현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이신애</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김지윤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윤혜령</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정지원</x:t>
+    <x:t>유서진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박유찬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유지오</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조환희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전형우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이윤진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김태영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정회민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서승현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이민성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이예원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김도은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김예승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문희정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전형빈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박소연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍송연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한서인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김연우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추정민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안지용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이수아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이재욱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이제희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조석희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정주연</x:t>
   </x:si>
   <x:si>
     <x:t>정해성</x:t>
   </x:si>
   <x:si>
-    <x:t>이민성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유지오</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서승현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안지용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조환희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박소연</x:t>
-  </x:si>
-  <x:si>
     <x:t>김은서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정주연</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이예원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전형빈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김연우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한서인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이재욱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이제희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유서진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김도은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이수아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조석희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정회민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김예승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박유찬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이윤진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문희정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김태영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전형우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍송연</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추정민</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -961,373 +961,301 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:B45"/>
+  <x:dimension ref="A1:C45"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="H44" activeCellId="0" sqref="H44:H44"/>
+    <x:sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="C36" activeCellId="0" sqref="C36:C36"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B3" s="1"/>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B4" s="1"/>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B6" s="1"/>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B7" s="1"/>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B8" s="1"/>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B9" s="1"/>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B10" s="1"/>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B11" s="1"/>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B12" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="1"/>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B13" s="1"/>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B14" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B14" s="1"/>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B15" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B15" s="1"/>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B16" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B16" s="1"/>
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B17" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
+      <x:c r="B17" s="1"/>
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B18" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B18" s="1"/>
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B19" s="1"/>
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B20" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B20" s="1"/>
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B21" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B21" s="1"/>
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B22" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B22" s="1"/>
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B23" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B23" s="1"/>
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B24" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B24" s="1"/>
     </x:row>
     <x:row r="25" spans="1:2">
       <x:c r="A25" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B25" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B25" s="1"/>
     </x:row>
     <x:row r="26" spans="1:2">
       <x:c r="A26" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B26" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B26" s="1"/>
     </x:row>
     <x:row r="27" spans="1:2">
       <x:c r="A27" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B27" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B27" s="1"/>
     </x:row>
     <x:row r="28" spans="1:2">
       <x:c r="A28" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B28" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B28" s="1"/>
     </x:row>
     <x:row r="29" spans="1:2">
       <x:c r="A29" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B29" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B29" s="1"/>
     </x:row>
     <x:row r="30" spans="1:2">
       <x:c r="A30" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B30" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B30" s="1"/>
     </x:row>
     <x:row r="31" spans="1:2">
       <x:c r="A31" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B31" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:2">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B31" s="1"/>
+    </x:row>
+    <x:row r="32" spans="1:3">
       <x:c r="A32" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B32" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:2">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B32" s="1"/>
+      <x:c r="C32" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
       <x:c r="A33" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B33" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:2">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B33" s="1"/>
+      <x:c r="C33" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3">
       <x:c r="A34" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B34" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:2">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B34" s="1"/>
+      <x:c r="C34" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3">
       <x:c r="A35" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B35" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B35" s="1"/>
+      <x:c r="C35" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:2">
       <x:c r="A36" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B36" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B36" s="1"/>
     </x:row>
     <x:row r="37" spans="1:2">
       <x:c r="A37" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B37" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B37" s="1"/>
     </x:row>
     <x:row r="38" spans="1:2">
       <x:c r="A38" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B38" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B38" s="1"/>
     </x:row>
     <x:row r="39" spans="1:2">
       <x:c r="A39" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B39" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B39" s="1"/>
     </x:row>
     <x:row r="40" spans="1:2">
       <x:c r="A40" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B40" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B40" s="1"/>
     </x:row>
     <x:row r="41" spans="1:2">
       <x:c r="A41" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B41" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B41" s="1"/>
     </x:row>
     <x:row r="42" spans="1:2">
       <x:c r="A42" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B42" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B42" s="1"/>
     </x:row>
     <x:row r="43" spans="1:2">
       <x:c r="A43" t="s">
-        <x:v>44</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B43" s="1"/>
     </x:row>
     <x:row r="44" spans="1:2">
       <x:c r="A44" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B44" s="1"/>
     </x:row>
     <x:row r="45" spans="1:2">
       <x:c r="A45" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B45" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B45" s="1"/>
     </x:row>
   </x:sheetData>
   <x:sortState columnSort="0" caseSensitive="0" ref="A1:A45">
     <x:sortCondition descending="0" sortBy="value" ref="A1:A45"/>
   </x:sortState>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>